--- a/RO_Remark.xlsx
+++ b/RO_Remark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open RO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05187AED-DCD2-4563-A99C-95BDEF68CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31382CF-FB6A-4BD8-9922-35023E88877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/RO_Remark.xlsx
+++ b/RO_Remark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open RO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31382CF-FB6A-4BD8-9922-35023E88877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B7DF0F-1F38-4CF3-802B-E9CC905514EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,13 +40,13 @@
     <t>WCA</t>
   </si>
   <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>DIAG</t>
   </si>
   <si>
     <t>MGP</t>
+  </si>
+  <si>
+    <t>CNA</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -452,17 +454,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
